--- a/prep/SPP/monk_seal_esi_critical_hab.xlsx
+++ b/prep/SPP/monk_seal_esi_critical_hab.xlsx
@@ -366,12 +366,12 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
